--- a/flashcards_pmbok.xlsx
+++ b/flashcards_pmbok.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="265">
   <si>
     <t>4.1. Develop project charter
 4.2. Develop project management plan
@@ -917,6 +917,269 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>1. Cost estimates
+2. Basis of estimates
+3. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Business documents
+4. Agreements
+5. Enterprise environmental factors
+6. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Cost aggregation
+3. Data analysis
+4. Historical information review
+5. Funding limit reconciliation
+6. Financing</t>
+  </si>
+  <si>
+    <t>1. Cost baseline
+2. Project funding requirements
+3. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Project funding requirements
+4. Work performance data
+5. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data analysis
+3. To-complete performance index
+4. Project management information system</t>
+  </si>
+  <si>
+    <t>1. Work performance information
+2. Cost forecasts
+3. Change requests
+4. Project management plan updates
+5. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project charter
+2. Project management plan
+3. Project documents
+4. Enterprise environmental factors
+5. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data gathering
+3. Data analysis
+4. Decision making
+5. Data representation
+6. Test and inspection planning
+7. Meetings</t>
+  </si>
+  <si>
+    <t>1. Quality management plan
+2. Quality metrics
+3. Project management plan updates
+4. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Data gathering
+2. Data analysis
+3. Decision making
+4. Data representation
+5. Audits
+6. Design for X
+7. Problem solving
+8. Quality improvement methods</t>
+  </si>
+  <si>
+    <t>1. Quality reports
+2. Test and evaluation documents
+3. Change requests
+4. Project management plan updates
+5. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Approved change requests
+4. Deliverables
+5. Work performance data
+6. Enterprise environmental factors
+7. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Data gathering
+2. Data analysis
+3. Inspection
+4. Testing/product evaluations
+5. Data representation
+6. Meetings</t>
+  </si>
+  <si>
+    <t>1. Quality control measurements
+2. Verified deliverables
+3. Work performance information
+4. Change requests
+5. Project management plan updates
+6. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Data representation
+3. Organizational theory
+4. Meetings</t>
+  </si>
+  <si>
+    <t>1. Resources management plan
+2. Team charter
+3. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Bottom-up estimating
+3. Analogous estimating
+4. Parametric estimating
+5. Data analysis
+6. Project management information system
+7. Meetings</t>
+  </si>
+  <si>
+    <t>1. Resource requirements
+2. Basis of estimates
+3. Resource breakdown structure
+4. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Decision making
+2. Interpersonal and team skills
+3. Pre-assignment
+4. Virtual teams</t>
+  </si>
+  <si>
+    <t>1. Physical resource assignments
+2. Project team assignments
+3. Resource calendars
+4. Change requests
+5. Project management plan updates
+6. Project documents updates
+7. Enterprise environmental factors updates
+8. Organizational process assets updates</t>
+  </si>
+  <si>
+    <t>1. Colocation
+2. Virtual teams
+3. Communication technology
+4. Interpersonal and team skills
+5. Recognition and rewards
+6. Training
+7. Individual and team assessments
+8. Meetings</t>
+  </si>
+  <si>
+    <t>1. Team performance assessments
+2. Change requests
+3. Project management plan updates
+4. Project documents updates
+5. Enterprise environmental factors updates
+6. Organizational process assets updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Work performance data
+4. Agreements
+5. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Data analysis
+2. Problem solving
+3. Interpersonal and team skills
+4. Project management information system</t>
+  </si>
+  <si>
+    <t>1. Work performance information
+2. Change requests
+3. Project management plan updates
+4. Project documents updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Work performance reports
+4. Team performance assessments
+5. Enterprise environmental factors
+6. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Interpersonal and team skills
+2. Project management information system</t>
+  </si>
+  <si>
+    <t>1. Change requests
+2. Project management plan updates
+3. Project documents updates
+4. Enterprise environmental factors updates</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Communication requirements analysis
+3. Communication technology
+4. Communication models
+5. Communication methods
+6. Interpersonal and team skills
+7. Data representation
+8. Meetings</t>
+  </si>
+  <si>
+    <t>1. Communications management plan
+2. Project management plan updates
+3. Project documents update</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Work performance reports
+4. Enterprise environmental factors
+5. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Communication technology
+2. Communication methods
+3. Communication skills
+4. Project management information system
+5. Project reporting
+6. Interpersonal and team skills
+7. Meetings</t>
+  </si>
+  <si>
+    <t>1. Project communications
+2. Project management plan updates
+3. Project documents updates
+4. Organizational process assets updates</t>
+  </si>
+  <si>
+    <t>1. Project management plan
+2. Project documents
+3. Work performance data
+4. Enterprise environmental factors
+5. Organizational process assets</t>
+  </si>
+  <si>
+    <t>1. Expert judgment
+2. Project management information system
+3. Data representation
+4. Interpersonal and team skills
+5. Meetings</t>
   </si>
 </sst>
 </file>
@@ -1275,8 +1538,8 @@
   <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,39 +2088,60 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>117</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1868,49 +2152,76 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>126</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1921,94 +2232,148 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>144</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -2019,49 +2384,76 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>153</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.25">
